--- a/The language eng is set in the language attribute of the html tag 24-10-2018.xlsx
+++ b/The language eng is set in the language attribute of the html tag 24-10-2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WORK\22-10-2018 project 1\EV-website-project 24-10-2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WORK\22-10-2018 project 1\EV-website-project 24-10-2018\EV-website-project-24-10-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -580,6 +580,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -612,12 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E55" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -933,12 +933,12 @@
       <c r="D3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="46" t="str">
+      <c r="F3" s="35" t="str">
         <f>D3&amp;" "&amp;D4&amp;" "&amp;D5&amp;"."</f>
         <v>The language "eng" is set in the language attribute of the html tag .</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -947,18 +947,18 @@
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="D6" s="9" t="s">
@@ -972,12 +972,12 @@
       <c r="D7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="46" t="str">
+      <c r="F7" s="35" t="str">
         <f>D7&amp;" "&amp;D8&amp;" "&amp;D9&amp;"."</f>
         <v>The language "eng" is set in the language attribute of the html tag .</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -986,26 +986,26 @@
       <c r="D8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="F11" t="s">
         <v>43</v>
       </c>
@@ -1104,12 +1104,12 @@
       <c r="D21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="46" t="str">
+      <c r="F21" s="35" t="str">
         <f>D21&amp;" "&amp;D22&amp;" "&amp;D23&amp;"."</f>
         <v>The language "eng" is set in the language attribute of the html tag .</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
@@ -1118,18 +1118,18 @@
       <c r="D22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="7" t="s">
@@ -1143,12 +1143,12 @@
       <c r="D25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="46" t="str">
+      <c r="F25" s="35" t="str">
         <f>D25&amp;" "&amp;D26&amp;" "&amp;D27&amp;"."</f>
         <v>The language "ru" is set in the language attribute of the html tag .</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
@@ -1157,31 +1157,31 @@
       <c r="D26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="46"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="43" t="s">
         <v>0</v>
       </c>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="F29" s="42"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="F30" s="42"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1191,7 +1191,7 @@
       <c r="D31" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="16" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="D32" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
       <c r="D33" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="44"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
       <c r="D34" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1237,7 +1237,7 @@
       <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1248,7 +1248,7 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1259,7 +1259,7 @@
       <c r="D37" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="44"/>
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1269,7 +1269,7 @@
       <c r="D38" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="44"/>
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1280,7 +1280,7 @@
       <c r="D39" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="42"/>
+      <c r="F39" s="44"/>
       <c r="G39" s="16"/>
     </row>
     <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1291,7 +1291,7 @@
       <c r="D40" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="F40" s="42" t="s">
         <v>2</v>
       </c>
       <c r="G40" s="18"/>
@@ -1303,7 +1303,7 @@
       <c r="D41" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="40"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
       <c r="D42" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="40"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="18"/>
     </row>
     <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
       <c r="D43" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="40"/>
+      <c r="F43" s="42"/>
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1336,11 +1336,11 @@
       <c r="D44" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="40"/>
+      <c r="F44" s="42"/>
       <c r="G44" s="18"/>
     </row>
     <row r="45" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F45" s="43" t="s">
+      <c r="F45" s="45" t="s">
         <v>3</v>
       </c>
       <c r="G45" s="19" t="s">
@@ -1348,7 +1348,7 @@
       </c>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="43"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="19"/>
     </row>
     <row r="47" spans="2:7" ht="21" x14ac:dyDescent="0.2">
@@ -1360,7 +1360,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="45" t="s">
         <v>7</v>
       </c>
       <c r="G48" s="19" t="s">
@@ -1368,17 +1368,17 @@
       </c>
     </row>
     <row r="49" spans="6:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="43"/>
+      <c r="F49" s="45"/>
       <c r="G49" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="6:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F50" s="43"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="19"/>
     </row>
     <row r="51" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F51" s="43"/>
+      <c r="F51" s="45"/>
       <c r="G51" s="19"/>
     </row>
     <row r="52" spans="6:7" ht="21" x14ac:dyDescent="0.2">
@@ -1414,50 +1414,50 @@
       </c>
     </row>
     <row r="56" spans="6:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="F56" s="44" t="s">
+      <c r="F56" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="45"/>
+      <c r="G56" s="47"/>
     </row>
     <row r="57" spans="6:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="F57" s="35" t="str">
+      <c r="F57" s="37" t="str">
         <f t="shared" ref="F57:F60" si="2">B12&amp;C12&amp;D12&amp;"."</f>
         <v>1.EV-website-project-master\EV-website-project-master\build\index.html.</v>
       </c>
-      <c r="G57" s="36"/>
+      <c r="G57" s="38"/>
     </row>
     <row r="58" spans="6:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="F58" s="35" t="str">
+      <c r="F58" s="37" t="str">
         <f t="shared" si="2"/>
         <v>2.Click right mouse button.</v>
       </c>
-      <c r="G58" s="36"/>
+      <c r="G58" s="38"/>
     </row>
     <row r="59" spans="6:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="F59" s="35" t="str">
+      <c r="F59" s="37" t="str">
         <f t="shared" si="2"/>
         <v>3.Choose "View code page" in the pop up menu.</v>
       </c>
-      <c r="G59" s="36"/>
+      <c r="G59" s="38"/>
     </row>
     <row r="60" spans="6:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="F60" s="35" t="str">
+      <c r="F60" s="37" t="str">
         <f t="shared" si="2"/>
         <v>4.Look at the lang attributte in the html tag in the string 1.</v>
       </c>
-      <c r="G60" s="36"/>
+      <c r="G60" s="38"/>
     </row>
     <row r="61" spans="6:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="F61" s="35"/>
-      <c r="G61" s="36"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
     </row>
     <row r="62" spans="6:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="F62" s="35"/>
-      <c r="G62" s="36"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
     </row>
     <row r="63" spans="6:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="F63" s="35"/>
-      <c r="G63" s="36"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="38"/>
     </row>
     <row r="64" spans="6:7" ht="15" x14ac:dyDescent="0.2">
       <c r="F64" s="27"/>
@@ -1497,11 +1497,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F3:H5"/>
-    <mergeCell ref="F7:H9"/>
-    <mergeCell ref="F21:H23"/>
-    <mergeCell ref="F25:H27"/>
-    <mergeCell ref="F61:G61"/>
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="B11:D11"/>
@@ -1514,6 +1509,11 @@
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="F48:F51"/>
     <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F3:H5"/>
+    <mergeCell ref="F7:H9"/>
+    <mergeCell ref="F21:H23"/>
+    <mergeCell ref="F25:H27"/>
+    <mergeCell ref="F61:G61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
